--- a/数据字典.xlsx
+++ b/数据字典.xlsx
@@ -491,10 +491,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>flat_state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -696,6 +692,10 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flat_del</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -852,13 +852,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -867,10 +864,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -882,10 +882,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1194,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1213,12 +1213,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1227,10 +1227,10 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="14"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
@@ -1239,48 +1239,48 @@
       <c r="B3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" s="12"/>
+      <c r="C3" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" s="12"/>
+        <v>140</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" s="12"/>
+        <v>141</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="G6" s="18" t="s">
-        <v>165</v>
+        <v>142</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="G6" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="H6" s="5">
         <v>1</v>
@@ -1291,16 +1291,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="G7" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="H7" s="19">
+        <v>143</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="G7" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="H7" s="9">
         <v>42393</v>
       </c>
     </row>
@@ -1309,84 +1309,84 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="D8" s="12"/>
+        <v>144</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="D9" s="12"/>
+        <v>145</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D10" s="12"/>
+        <v>146</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="D11" s="12"/>
+        <v>147</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="D12" s="12"/>
+        <v>148</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>11</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>13</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -1527,7 +1527,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>22</v>
@@ -1551,7 +1551,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -1774,11 +1774,11 @@
       <c r="D38" s="4">
         <v>4</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="10"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="14"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
@@ -1952,11 +1952,11 @@
       <c r="D47" s="4">
         <v>5</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="10"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="14"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
@@ -2047,7 +2047,7 @@
         <v>61</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2181,7 +2181,7 @@
         <v>10</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>82</v>
@@ -2255,7 +2255,7 @@
         <v>87</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2271,11 +2271,11 @@
       <c r="D63" s="4">
         <v>6</v>
       </c>
-      <c r="E63" s="8"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="10"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="14"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
@@ -2445,11 +2445,11 @@
       <c r="D72" s="4">
         <v>7</v>
       </c>
-      <c r="E72" s="8"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="10"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="14"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
@@ -2548,20 +2548,20 @@
         <v>4</v>
       </c>
       <c r="B77" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="I77" s="5" t="s">
         <v>167</v>
-      </c>
-      <c r="I77" s="5" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -2596,11 +2596,11 @@
       <c r="D80" s="4">
         <v>8</v>
       </c>
-      <c r="E80" s="8"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="10"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="14"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
@@ -2747,11 +2747,11 @@
       <c r="D88" s="4">
         <v>9</v>
       </c>
-      <c r="E88" s="8"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="10"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="14"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
@@ -2820,7 +2820,7 @@
       </c>
       <c r="G91" s="5"/>
       <c r="H91" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I91" s="5"/>
     </row>
@@ -2837,11 +2837,11 @@
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G92" s="5"/>
       <c r="H92" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I92" s="5"/>
     </row>
@@ -2860,7 +2860,7 @@
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I93" s="5"/>
     </row>
@@ -2879,7 +2879,7 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c r="H94" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I94" s="7"/>
     </row>
@@ -2891,14 +2891,14 @@
         <v>117</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c r="H95" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I95" s="7"/>
     </row>
@@ -2910,17 +2910,17 @@
         <v>118</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c r="H96" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -2928,20 +2928,20 @@
         <v>8</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c r="H97" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -2949,7 +2949,7 @@
         <v>2</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>1</v>
@@ -2957,11 +2957,11 @@
       <c r="D99" s="4">
         <v>10</v>
       </c>
-      <c r="E99" s="8"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="10"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="14"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -3018,20 +3018,20 @@
         <v>2</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
       <c r="H102" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -3039,31 +3039,22 @@
         <v>3</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
       <c r="H103" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I103" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E63:I63"/>
-    <mergeCell ref="E72:I72"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="E47:I47"/>
     <mergeCell ref="E80:I80"/>
     <mergeCell ref="E88:I88"/>
     <mergeCell ref="E99:I99"/>
@@ -3080,6 +3071,15 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E63:I63"/>
+    <mergeCell ref="E72:I72"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="E47:I47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据字典.xlsx
+++ b/数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="172">
   <si>
     <t>表目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -696,6 +696,10 @@
   </si>
   <si>
     <t>flat_del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-未激活，1-正常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1192,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1560,7 +1564,9 @@
       <c r="H25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I25" s="5"/>
+      <c r="I25" s="5" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -2719,345 +2725,366 @@
       <c r="A86" s="5">
         <v>5</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="5">
+        <v>6</v>
+      </c>
+      <c r="B87" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C87" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7" t="s">
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="I86" s="7"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D88" s="4">
-        <v>9</v>
-      </c>
-      <c r="E88" s="12"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="14"/>
+      <c r="I87" s="7"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C89" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="D89" s="4">
+        <v>9</v>
+      </c>
+      <c r="E89" s="12"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="14"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C90" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="D90" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E89" s="6" t="s">
+      <c r="E90" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F89" s="6" t="s">
+      <c r="F90" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G89" s="6" t="s">
+      <c r="G90" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H89" s="6" t="s">
+      <c r="H90" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I89" s="6" t="s">
+      <c r="I90" s="6" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="5">
-        <v>1</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5" t="s">
-        <v>105</v>
-      </c>
+      <c r="E91" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F91" s="5"/>
       <c r="G91" s="5"/>
-      <c r="H91" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="I91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="G92" s="5"/>
       <c r="H92" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I92" s="5"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
+      <c r="F93" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="G93" s="5"/>
       <c r="H93" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I93" s="5"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
-        <v>5</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>116</v>
+        <v>4</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="I94" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I94" s="5"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c r="H95" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I95" s="7"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c r="H96" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="I96" s="7" t="s">
-        <v>130</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="I96" s="7"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c r="H97" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="5">
+        <v>8</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="I97" s="7" t="s">
+      <c r="I98" s="7" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D99" s="4">
-        <v>10</v>
-      </c>
-      <c r="E99" s="12"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="13"/>
-      <c r="H99" s="13"/>
-      <c r="I99" s="14"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C100" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="D100" s="4">
+        <v>10</v>
+      </c>
+      <c r="E100" s="12"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="14"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C101" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="D101" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E100" s="6" t="s">
+      <c r="E101" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F100" s="6" t="s">
+      <c r="F101" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G100" s="6" t="s">
+      <c r="G101" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H100" s="6" t="s">
+      <c r="H101" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I100" s="6" t="s">
+      <c r="I101" s="6" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="5">
-        <v>1</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
+      <c r="E102" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
-      <c r="H102" s="5" t="s">
-        <v>137</v>
-      </c>
+      <c r="H102" s="5"/>
       <c r="I102" s="5" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
       <c r="H103" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="5">
+        <v>3</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="I103" s="5"/>
+      <c r="I104" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="25">
     <mergeCell ref="E80:I80"/>
-    <mergeCell ref="E88:I88"/>
-    <mergeCell ref="E99:I99"/>
+    <mergeCell ref="E89:I89"/>
+    <mergeCell ref="E100:I100"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C2:D2"/>

--- a/数据字典.xlsx
+++ b/数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="183">
   <si>
     <t>表目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -439,27 +439,163 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>varchar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>文档路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag_read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件发送方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件接收方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已读标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true-已读，false-未读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true-已删除，false-未删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文档类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档路径</t>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-团队组建，1-项目报告，2-最终作品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>univ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>document</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -467,39 +603,131 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>from_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag_read</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean</t>
+    <t>用户身份验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比赛进程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队成员信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指导老师信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>year_entry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exptime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true-队长，false-队员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true-男，false-女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余提交次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`-1为无限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flat_del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-未激活，1-正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档可提交次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`-1表示无限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -507,43 +735,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>邮件发送方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件接收方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已读标记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除标记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>true-已读，false-未读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>true-已删除，false-未删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>process</t>
+    <t>文档类别ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -551,155 +743,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timestamp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>截止时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-团队组建，1-项目报告，2-最终作品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>univ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>team</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>teacher</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>report</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>document</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>process</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户身份验证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>省份城市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大学名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团队信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目报告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比赛进程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团队成员信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指导老师信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>year_entry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exptime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>true-队长，false-队员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>true-男，false-女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余提交次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>`-1为无限制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>freq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flat_del</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-未激活，1-正常</t>
+    <t>作品类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -764,7 +808,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -833,11 +877,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -862,10 +954,7 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -877,6 +966,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -886,10 +987,30 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1196,10 +1317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="I93" sqref="I93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1217,12 +1338,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1231,10 +1352,10 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="19"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
@@ -1243,48 +1364,48 @@
       <c r="B3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" s="11"/>
+      <c r="C3" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D4" s="11"/>
+        <v>139</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="30"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="11"/>
+        <v>140</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="11"/>
+        <v>141</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="30"/>
       <c r="G6" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H6" s="5">
         <v>1</v>
@@ -1295,17 +1416,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D7" s="11"/>
+        <v>142</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="30"/>
       <c r="G7" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H7" s="9">
-        <v>42393</v>
+        <v>42394</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1313,84 +1434,92 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" s="11"/>
+        <v>143</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="30"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" s="11"/>
+        <v>144</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="30"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10" s="11"/>
+        <v>145</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="30"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D11" s="11"/>
+      <c r="B11" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" s="30"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="D12" s="11"/>
+        <v>146</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="30"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
+      <c r="B13" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
+      <c r="B14" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" s="30"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>13</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -1405,11 +1534,11 @@
       <c r="D18" s="4">
         <v>1</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -1531,7 +1660,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>22</v>
@@ -1555,7 +1684,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -1565,7 +1694,7 @@
         <v>28</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1581,11 +1710,11 @@
       <c r="D27" s="4">
         <v>2</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="17"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="20"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
@@ -1671,11 +1800,11 @@
       <c r="D32" s="4">
         <v>3</v>
       </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="17"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="20"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
@@ -1780,11 +1909,11 @@
       <c r="D38" s="4">
         <v>4</v>
       </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="14"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="13"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
@@ -1958,11 +2087,11 @@
       <c r="D47" s="4">
         <v>5</v>
       </c>
-      <c r="E47" s="12"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="14"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="13"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
@@ -2053,7 +2182,7 @@
         <v>61</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2187,7 +2316,7 @@
         <v>10</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>82</v>
@@ -2261,7 +2390,7 @@
         <v>87</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2277,11 +2406,11 @@
       <c r="D63" s="4">
         <v>6</v>
       </c>
-      <c r="E63" s="12"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="14"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="13"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
@@ -2451,11 +2580,11 @@
       <c r="D72" s="4">
         <v>7</v>
       </c>
-      <c r="E72" s="12"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="14"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="13"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
@@ -2554,20 +2683,20 @@
         <v>4</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -2602,11 +2731,11 @@
       <c r="D80" s="4">
         <v>8</v>
       </c>
-      <c r="E80" s="12"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="14"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="13"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
@@ -2684,19 +2813,19 @@
         <v>3</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D84" s="5">
-        <v>10</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="D84" s="5"/>
       <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
+      <c r="F84" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="G84" s="5"/>
       <c r="H84" s="5" t="s">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="I84" s="5"/>
     </row>
@@ -2705,10 +2834,10 @@
         <v>4</v>
       </c>
       <c r="B85" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="D85" s="5">
         <v>50</v>
@@ -2717,7 +2846,7 @@
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I85" s="5"/>
     </row>
@@ -2726,7 +2855,7 @@
         <v>5</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>16</v>
@@ -2736,76 +2865,87 @@
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
       <c r="H86" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="5">
+      <c r="A87" s="22">
         <v>6</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7" t="s">
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="I87" s="7"/>
+      <c r="I87" s="23"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="29"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="21"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C89" s="6" t="s">
+      <c r="B89" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C89" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D89" s="4">
+      <c r="D89" s="25">
         <v>9</v>
       </c>
-      <c r="E89" s="12"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="14"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="28"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C90" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="D90" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="E90" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F90" s="6" t="s">
+      <c r="F90" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G90" s="6" t="s">
+      <c r="G90" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H90" s="6" t="s">
+      <c r="H90" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I90" s="6" t="s">
+      <c r="I90" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2835,19 +2975,19 @@
         <v>2</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="G92" s="5"/>
       <c r="H92" s="5" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="I92" s="5"/>
     </row>
@@ -2856,250 +2996,439 @@
         <v>3</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D93" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="D93" s="5">
+        <v>10</v>
+      </c>
       <c r="E93" s="5"/>
-      <c r="F93" s="5" t="s">
-        <v>122</v>
-      </c>
+      <c r="F93" s="5"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="I93" s="5"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="5">
-        <v>4</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="I94" s="5"/>
-    </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="5">
+      <c r="A95" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D95" s="4">
+        <v>10</v>
+      </c>
+      <c r="E95" s="11"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="13"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B95" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="I95" s="7"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="5">
+      <c r="C96" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B96" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="I96" s="7"/>
+      <c r="D96" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I96" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
-        <v>7</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="I97" s="7" t="s">
-        <v>130</v>
+        <v>1</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
-        <v>8</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C98" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I98" s="5"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="5">
+        <v>3</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="I98" s="7" t="s">
-        <v>131</v>
-      </c>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I99" s="5"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D100" s="4">
-        <v>10</v>
-      </c>
-      <c r="E100" s="12"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="13"/>
-      <c r="I100" s="14"/>
+      <c r="A100" s="5">
+        <v>4</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I100" s="5"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="6" t="s">
+      <c r="A101" s="5">
         <v>5</v>
       </c>
-      <c r="C101" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H101" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I101" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="B101" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I101" s="7"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
-        <v>1</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5" t="s">
-        <v>18</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="I102" s="7"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
-        <v>2</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="I103" s="5" t="s">
-        <v>139</v>
+        <v>7</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I103" s="7" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
+        <v>8</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D106" s="4">
+        <v>11</v>
+      </c>
+      <c r="E106" s="11"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="13"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I107" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="5">
+        <v>1</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="5">
+        <v>2</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="5">
         <v>3</v>
       </c>
-      <c r="B104" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="I104" s="5"/>
+      <c r="B110" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I110" s="5"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D112" s="4">
+        <v>12</v>
+      </c>
+      <c r="E112" s="11"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="13"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H113" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I113" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="5">
+        <v>1</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="5">
+        <v>2</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>173</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="E80:I80"/>
+  <mergeCells count="27">
+    <mergeCell ref="E112:I112"/>
     <mergeCell ref="E89:I89"/>
-    <mergeCell ref="E100:I100"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="E63:I63"/>
     <mergeCell ref="E72:I72"/>
     <mergeCell ref="E27:I27"/>
@@ -3107,6 +3436,20 @@
     <mergeCell ref="E32:I32"/>
     <mergeCell ref="E38:I38"/>
     <mergeCell ref="E47:I47"/>
+    <mergeCell ref="E80:I80"/>
+    <mergeCell ref="E95:I95"/>
+    <mergeCell ref="E106:I106"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
